--- a/Logibooks.Core.Tests/test.data/Wbr_with_colors.xlsx
+++ b/Logibooks.Core.Tests/test.data/Wbr_with_colors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Projects\30.Projects\logibooks\core\Logibooks.Core.Tests\test.data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{555EDFE2-7089-4F98-B971-14BB250AC751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9183EE32-9528-4E8B-9E58-F4B3AE9B37E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3380" windowWidth="26930" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Реестр" sheetId="1" r:id="rId1"/>
@@ -1757,15 +1757,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AV35" sqref="AV35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="60" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" customWidth="1"/>
+    <col min="6" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="44.26953125" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="36.81640625" customWidth="1"/>
     <col min="13" max="13" width="19.1796875" customWidth="1"/>
